--- a/data/SOCIAL ACTIVE TEMPERE SOLIDAIRE.xlsx
+++ b/data/SOCIAL ACTIVE TEMPERE SOLIDAIRE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>Historique Cours</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Date d'export</t>
   </si>
   <si>
-    <t>29/04/2025</t>
+    <t>31/10/2025</t>
   </si>
   <si>
     <t>Valeur :</t>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
   </si>
   <si>
     <t>31/03/2025</t>
@@ -1075,8 +1093,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D261" headerRowCount="1">
-  <autoFilter ref="A7:D261"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D267" headerRowCount="1">
+  <autoFilter ref="A7:D267"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Date de cotation"/>
     <tableColumn id="2" name="Dernier cours en EUR"/>
@@ -1089,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="80"/>
   </sheetViews>
@@ -1206,13 +1224,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="14">
-        <v>15.454</v>
+        <v>15.7809</v>
       </c>
       <c r="C8" s="15">
-        <v>-1.46</v>
+        <v>0.09</v>
       </c>
       <c r="D8" s="16">
-        <v>26410715</v>
+        <v>27958865</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1222,13 +1240,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="14">
-        <v>15.6831</v>
+        <v>15.7666</v>
       </c>
       <c r="C9" s="15">
-        <v>1.11</v>
+        <v>-0.26</v>
       </c>
       <c r="D9" s="16">
-        <v>26632265</v>
+        <v>28144179</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1238,13 +1256,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="14">
-        <v>15.5112</v>
+        <v>15.8083</v>
       </c>
       <c r="C10" s="15">
-        <v>1.67</v>
+        <v>0.58</v>
       </c>
       <c r="D10" s="16">
-        <v>26690099</v>
+        <v>28208442</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1254,13 +1272,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="14">
-        <v>15.2564</v>
+        <v>15.7176</v>
       </c>
       <c r="C11" s="15">
-        <v>0.09</v>
+        <v>-0.3</v>
       </c>
       <c r="D11" s="16">
-        <v>26845237</v>
+        <v>28147007</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1270,13 +1288,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="14">
-        <v>15.2426</v>
+        <v>15.7645</v>
       </c>
       <c r="C12" s="15">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="D12" s="16">
-        <v>26818264</v>
+        <v>27529765</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1286,13 +1304,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="14">
-        <v>15.135</v>
+        <v>15.5705</v>
       </c>
       <c r="C13" s="15">
-        <v>-1.04</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="16">
-        <v>26929428</v>
+        <v>26537148</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1302,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="14">
-        <v>15.2933</v>
+        <v>15.454</v>
       </c>
       <c r="C14" s="15">
-        <v>0.89</v>
+        <v>-1.46</v>
       </c>
       <c r="D14" s="16">
-        <v>27020006</v>
+        <v>26410715</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1318,13 +1336,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="14">
-        <v>15.1584</v>
+        <v>15.6831</v>
       </c>
       <c r="C15" s="15">
-        <v>0.51</v>
+        <v>1.11</v>
       </c>
       <c r="D15" s="16">
-        <v>27124319</v>
+        <v>26632265</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1334,13 +1352,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="14">
-        <v>15.0816</v>
+        <v>15.5112</v>
       </c>
       <c r="C16" s="15">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="D16" s="16">
-        <v>27294390</v>
+        <v>26690099</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1350,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="14">
-        <v>14.9271</v>
+        <v>15.2564</v>
       </c>
       <c r="C17" s="15">
-        <v>-0.44</v>
+        <v>0.09</v>
       </c>
       <c r="D17" s="16">
-        <v>27314404</v>
+        <v>26845237</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1366,13 +1384,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="14">
-        <v>14.9928</v>
+        <v>15.2426</v>
       </c>
       <c r="C18" s="15">
-        <v>0.99</v>
+        <v>0.71</v>
       </c>
       <c r="D18" s="16">
-        <v>26939895</v>
+        <v>26818264</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1382,13 +1400,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="14">
-        <v>14.8465</v>
+        <v>15.135</v>
       </c>
       <c r="C19" s="15">
-        <v>-0.68</v>
+        <v>-1.04</v>
       </c>
       <c r="D19" s="16">
-        <v>25973217</v>
+        <v>26929428</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1398,13 +1416,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="14">
-        <v>14.9485</v>
+        <v>15.2933</v>
       </c>
       <c r="C20" s="15">
-        <v>1.12</v>
+        <v>0.89</v>
       </c>
       <c r="D20" s="16">
-        <v>25671577</v>
+        <v>27020006</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1414,13 +1432,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="14">
-        <v>14.7835</v>
+        <v>15.1584</v>
       </c>
       <c r="C21" s="15">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="D21" s="16">
-        <v>25820021</v>
+        <v>27124319</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1430,13 +1448,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="14">
-        <v>14.7222</v>
+        <v>15.0816</v>
       </c>
       <c r="C22" s="15">
-        <v>-0.1</v>
+        <v>1.04</v>
       </c>
       <c r="D22" s="16">
-        <v>26385972</v>
+        <v>27294390</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1446,13 +1464,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="14">
-        <v>14.7365</v>
+        <v>14.9271</v>
       </c>
       <c r="C23" s="15">
-        <v>2.34</v>
+        <v>-0.44</v>
       </c>
       <c r="D23" s="16">
-        <v>26664397</v>
+        <v>27314404</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1462,13 +1480,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="14">
-        <v>14.4003</v>
+        <v>14.9928</v>
       </c>
       <c r="C24" s="15">
-        <v>3.26</v>
+        <v>0.99</v>
       </c>
       <c r="D24" s="16">
-        <v>26756224</v>
+        <v>26939895</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1478,13 +1496,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="14">
-        <v>13.9463</v>
+        <v>14.8465</v>
       </c>
       <c r="C25" s="15">
-        <v>-0.49</v>
+        <v>-0.68</v>
       </c>
       <c r="D25" s="16">
-        <v>27100615</v>
+        <v>25973217</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -1494,13 +1512,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="14">
-        <v>14.0155</v>
+        <v>14.9485</v>
       </c>
       <c r="C26" s="15">
-        <v>-1.18</v>
+        <v>1.12</v>
       </c>
       <c r="D26" s="16">
-        <v>27434822</v>
+        <v>25671577</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -1510,13 +1528,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="14">
-        <v>14.1832</v>
+        <v>14.7835</v>
       </c>
       <c r="C27" s="15">
-        <v>-0.74</v>
+        <v>0.42</v>
       </c>
       <c r="D27" s="16">
-        <v>27612041</v>
+        <v>25820021</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -1526,13 +1544,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="14">
-        <v>14.2882</v>
+        <v>14.7222</v>
       </c>
       <c r="C28" s="15">
-        <v>1.03</v>
+        <v>-0.1</v>
       </c>
       <c r="D28" s="16">
-        <v>27609778</v>
+        <v>26385972</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -1542,13 +1560,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="14">
-        <v>14.1431</v>
+        <v>14.7365</v>
       </c>
       <c r="C29" s="15">
-        <v>0.44</v>
+        <v>2.34</v>
       </c>
       <c r="D29" s="16">
-        <v>27618876</v>
+        <v>26664397</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -1558,13 +1576,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="14">
-        <v>14.0815</v>
+        <v>14.4003</v>
       </c>
       <c r="C30" s="15">
-        <v>-0.43</v>
+        <v>3.26</v>
       </c>
       <c r="D30" s="16">
-        <v>27173910</v>
+        <v>26756224</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -1574,13 +1592,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="14">
-        <v>14.1424</v>
+        <v>13.9463</v>
       </c>
       <c r="C31" s="15">
-        <v>0.89</v>
+        <v>-0.49</v>
       </c>
       <c r="D31" s="16">
-        <v>26373626</v>
+        <v>27100615</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -1590,13 +1608,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="14">
-        <v>14.0179</v>
+        <v>14.0155</v>
       </c>
       <c r="C32" s="15">
-        <v>1.09</v>
+        <v>-1.18</v>
       </c>
       <c r="D32" s="16">
-        <v>26516596</v>
+        <v>27434822</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -1606,13 +1624,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="14">
-        <v>13.8662</v>
+        <v>14.1832</v>
       </c>
       <c r="C33" s="15">
-        <v>-0.46</v>
+        <v>-0.74</v>
       </c>
       <c r="D33" s="16">
-        <v>26953299</v>
+        <v>27612041</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -1622,13 +1640,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="14">
-        <v>13.9307</v>
+        <v>14.2882</v>
       </c>
       <c r="C34" s="15">
-        <v>2.95</v>
+        <v>1.03</v>
       </c>
       <c r="D34" s="16">
-        <v>27138500</v>
+        <v>27609778</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -1638,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="14">
-        <v>13.532</v>
+        <v>14.1431</v>
       </c>
       <c r="C35" s="15">
-        <v>-1.87</v>
+        <v>0.44</v>
       </c>
       <c r="D35" s="16">
-        <v>27375019</v>
+        <v>27618876</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -1654,13 +1672,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="14">
-        <v>13.7904</v>
+        <v>14.0815</v>
       </c>
       <c r="C36" s="15">
-        <v>2.68</v>
+        <v>-0.43</v>
       </c>
       <c r="D36" s="16">
-        <v>27611383</v>
+        <v>27173910</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -1670,13 +1688,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="14">
-        <v>13.4301</v>
+        <v>14.1424</v>
       </c>
       <c r="C37" s="15">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="D37" s="16">
-        <v>27712668</v>
+        <v>26373626</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -1686,13 +1704,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="14">
-        <v>13.2445</v>
+        <v>14.0179</v>
       </c>
       <c r="C38" s="15">
-        <v>-2.9</v>
+        <v>1.09</v>
       </c>
       <c r="D38" s="16">
-        <v>28141058</v>
+        <v>26516596</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -1702,13 +1720,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="14">
-        <v>13.6393</v>
+        <v>13.8662</v>
       </c>
       <c r="C39" s="15">
-        <v>-3.67</v>
+        <v>-0.46</v>
       </c>
       <c r="D39" s="16">
-        <v>28579838</v>
+        <v>26953299</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -1718,13 +1736,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="14">
-        <v>14.1582</v>
+        <v>13.9307</v>
       </c>
       <c r="C40" s="15">
-        <v>3.68</v>
+        <v>2.95</v>
       </c>
       <c r="D40" s="16">
-        <v>28682522</v>
+        <v>27138500</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -1734,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="14">
-        <v>13.6559</v>
+        <v>13.532</v>
       </c>
       <c r="C41" s="15">
-        <v>-3.26</v>
+        <v>-1.87</v>
       </c>
       <c r="D41" s="16">
-        <v>28723130</v>
+        <v>27375019</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -1750,13 +1768,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="14">
-        <v>14.1159</v>
+        <v>13.7904</v>
       </c>
       <c r="C42" s="15">
-        <v>-0.84</v>
+        <v>2.68</v>
       </c>
       <c r="D42" s="16">
-        <v>28480323</v>
+        <v>27611383</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -1766,13 +1784,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="14">
-        <v>14.2348</v>
+        <v>13.4301</v>
       </c>
       <c r="C43" s="15">
-        <v>-1.95</v>
+        <v>1.4</v>
       </c>
       <c r="D43" s="16">
-        <v>27391640</v>
+        <v>27712668</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -1782,13 +1800,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="14">
-        <v>14.5183</v>
+        <v>13.2445</v>
       </c>
       <c r="C44" s="15">
-        <v>-1.06</v>
+        <v>-2.9</v>
       </c>
       <c r="D44" s="16">
-        <v>27176414</v>
+        <v>28141058</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -1798,13 +1816,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="14">
-        <v>14.6738</v>
+        <v>13.6393</v>
       </c>
       <c r="C45" s="15">
-        <v>-2.4</v>
+        <v>-3.67</v>
       </c>
       <c r="D45" s="16">
-        <v>27648035</v>
+        <v>28579838</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1814,13 +1832,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="14">
-        <v>15.0341</v>
+        <v>14.1582</v>
       </c>
       <c r="C46" s="15">
-        <v>-2.18</v>
+        <v>3.68</v>
       </c>
       <c r="D46" s="16">
-        <v>27793878</v>
+        <v>28682522</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -1830,13 +1848,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="14">
-        <v>15.3697</v>
+        <v>13.6559</v>
       </c>
       <c r="C47" s="15">
-        <v>1.06</v>
+        <v>-3.26</v>
       </c>
       <c r="D47" s="16">
-        <v>27629335</v>
+        <v>28723130</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -1846,13 +1864,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="14">
-        <v>15.2091</v>
+        <v>14.1159</v>
       </c>
       <c r="C48" s="15">
-        <v>-0.29</v>
+        <v>-0.84</v>
       </c>
       <c r="D48" s="16">
-        <v>27204612</v>
+        <v>28480323</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -1862,13 +1880,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="14">
-        <v>15.2538</v>
+        <v>14.2348</v>
       </c>
       <c r="C49" s="15">
-        <v>0.73</v>
+        <v>-1.95</v>
       </c>
       <c r="D49" s="16">
-        <v>27113066</v>
+        <v>27391640</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -1878,13 +1896,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="14">
-        <v>15.144</v>
+        <v>14.5183</v>
       </c>
       <c r="C50" s="15">
-        <v>-1.28</v>
+        <v>-1.06</v>
       </c>
       <c r="D50" s="16">
-        <v>27182928</v>
+        <v>27176414</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -1894,13 +1912,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="14">
-        <v>15.3402</v>
+        <v>14.6738</v>
       </c>
       <c r="C51" s="15">
-        <v>0.52</v>
+        <v>-2.4</v>
       </c>
       <c r="D51" s="16">
-        <v>27428081</v>
+        <v>27648035</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -1910,13 +1928,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="14">
-        <v>15.2612</v>
+        <v>15.0341</v>
       </c>
       <c r="C52" s="15">
-        <v>0.79</v>
+        <v>-2.18</v>
       </c>
       <c r="D52" s="16">
-        <v>27409830</v>
+        <v>27793878</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -1926,13 +1944,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="14">
-        <v>15.1419</v>
+        <v>15.3697</v>
       </c>
       <c r="C53" s="15">
-        <v>0.41</v>
+        <v>1.06</v>
       </c>
       <c r="D53" s="16">
-        <v>27240164</v>
+        <v>27629335</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -1942,13 +1960,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="14">
-        <v>15.0805</v>
+        <v>15.2091</v>
       </c>
       <c r="C54" s="15">
-        <v>0.49</v>
+        <v>-0.29</v>
       </c>
       <c r="D54" s="16">
-        <v>26175558</v>
+        <v>27204612</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -1958,13 +1976,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="14">
-        <v>15.0077</v>
+        <v>15.2538</v>
       </c>
       <c r="C55" s="15">
-        <v>0.34</v>
+        <v>0.73</v>
       </c>
       <c r="D55" s="16">
-        <v>24579635</v>
+        <v>27113066</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -1974,13 +1992,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="14">
-        <v>14.9567</v>
+        <v>15.144</v>
       </c>
       <c r="C56" s="15">
-        <v>1.57</v>
+        <v>-1.28</v>
       </c>
       <c r="D56" s="16">
-        <v>23850708</v>
+        <v>27182928</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -1990,13 +2008,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="14">
-        <v>14.7259</v>
+        <v>15.3402</v>
       </c>
       <c r="C57" s="15">
-        <v>0.18</v>
+        <v>0.52</v>
       </c>
       <c r="D57" s="16">
-        <v>23635941</v>
+        <v>27428081</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -2006,13 +2024,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="14">
-        <v>14.6994</v>
+        <v>15.2612</v>
       </c>
       <c r="C58" s="15">
-        <v>-0.47</v>
+        <v>0.79</v>
       </c>
       <c r="D58" s="16">
-        <v>23438140</v>
+        <v>27409830</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -2022,13 +2040,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="14">
-        <v>14.7691</v>
+        <v>15.1419</v>
       </c>
       <c r="C59" s="15">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="D59" s="16">
-        <v>23337460</v>
+        <v>27240164</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -2038,13 +2056,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="14">
-        <v>14.7203</v>
+        <v>15.0805</v>
       </c>
       <c r="C60" s="15">
-        <v>3.01</v>
+        <v>0.49</v>
       </c>
       <c r="D60" s="16">
-        <v>22878949</v>
+        <v>26175558</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -2054,13 +2072,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="14">
-        <v>14.2904</v>
+        <v>15.0077</v>
       </c>
       <c r="C61" s="15">
-        <v>-1.11</v>
+        <v>0.34</v>
       </c>
       <c r="D61" s="16">
-        <v>22682017</v>
+        <v>24579635</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -2070,13 +2088,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="14">
-        <v>14.4513</v>
+        <v>14.9567</v>
       </c>
       <c r="C62" s="15">
-        <v>-0.24</v>
+        <v>1.57</v>
       </c>
       <c r="D62" s="16">
-        <v>22456814</v>
+        <v>23850708</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -2086,13 +2104,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="14">
-        <v>14.4862</v>
+        <v>14.7259</v>
       </c>
       <c r="C63" s="15">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="D63" s="16">
-        <v>22273337</v>
+        <v>23635941</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -2102,13 +2120,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="14">
-        <v>14.4221</v>
+        <v>14.6994</v>
       </c>
       <c r="C64" s="15">
-        <v>0.08</v>
+        <v>-0.47</v>
       </c>
       <c r="D64" s="16">
-        <v>22059075</v>
+        <v>23438140</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -2118,13 +2136,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="14">
-        <v>14.41</v>
+        <v>14.7691</v>
       </c>
       <c r="C65" s="15">
-        <v>1.55</v>
+        <v>0.33</v>
       </c>
       <c r="D65" s="16">
-        <v>21534754</v>
+        <v>23337460</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -2134,13 +2152,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="14">
-        <v>14.1899</v>
+        <v>14.7203</v>
       </c>
       <c r="C66" s="15">
-        <v>0.96</v>
+        <v>3.01</v>
       </c>
       <c r="D66" s="16">
-        <v>20601299</v>
+        <v>22878949</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -2150,13 +2168,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="14">
-        <v>14.0544</v>
+        <v>14.2904</v>
       </c>
       <c r="C67" s="15">
-        <v>1.71</v>
+        <v>-1.11</v>
       </c>
       <c r="D67" s="16">
-        <v>20180084</v>
+        <v>22682017</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -2166,13 +2184,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="14">
-        <v>13.8179</v>
+        <v>14.4513</v>
       </c>
       <c r="C68" s="15">
-        <v>-2.09</v>
+        <v>-0.24</v>
       </c>
       <c r="D68" s="16">
-        <v>20063482</v>
+        <v>22456814</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2182,13 +2200,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="14">
-        <v>14.1131</v>
+        <v>14.4862</v>
       </c>
       <c r="C69" s="15">
-        <v>-1.24</v>
+        <v>0.44</v>
       </c>
       <c r="D69" s="16">
-        <v>20604649</v>
+        <v>22273337</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -2198,13 +2216,13 @@
         <v>75</v>
       </c>
       <c r="B70" s="14">
-        <v>14.2903</v>
+        <v>14.4221</v>
       </c>
       <c r="C70" s="15">
-        <v>-0.16</v>
+        <v>0.08</v>
       </c>
       <c r="D70" s="16">
-        <v>20591533</v>
+        <v>22059075</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -2214,13 +2232,13 @@
         <v>76</v>
       </c>
       <c r="B71" s="14">
-        <v>14.3138</v>
+        <v>14.41</v>
       </c>
       <c r="C71" s="15">
-        <v>-0.03</v>
+        <v>1.55</v>
       </c>
       <c r="D71" s="16">
-        <v>20416510</v>
+        <v>21534754</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -2230,13 +2248,13 @@
         <v>77</v>
       </c>
       <c r="B72" s="14">
-        <v>14.3184</v>
+        <v>14.1899</v>
       </c>
       <c r="C72" s="15">
-        <v>0.34</v>
+        <v>0.96</v>
       </c>
       <c r="D72" s="16">
-        <v>20375465</v>
+        <v>20601299</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -2246,13 +2264,13 @@
         <v>78</v>
       </c>
       <c r="B73" s="14">
-        <v>14.2694</v>
+        <v>14.0544</v>
       </c>
       <c r="C73" s="15">
-        <v>0.02</v>
+        <v>1.71</v>
       </c>
       <c r="D73" s="16">
-        <v>20292025</v>
+        <v>20180084</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -2262,13 +2280,13 @@
         <v>79</v>
       </c>
       <c r="B74" s="14">
-        <v>14.266</v>
+        <v>13.8179</v>
       </c>
       <c r="C74" s="15">
-        <v>0.23</v>
+        <v>-2.09</v>
       </c>
       <c r="D74" s="16">
-        <v>20329763</v>
+        <v>20063482</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -2278,13 +2296,13 @@
         <v>80</v>
       </c>
       <c r="B75" s="14">
-        <v>14.2337</v>
+        <v>14.1131</v>
       </c>
       <c r="C75" s="15">
-        <v>-0.17</v>
+        <v>-1.24</v>
       </c>
       <c r="D75" s="16">
-        <v>20319771</v>
+        <v>20604649</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -2294,13 +2312,13 @@
         <v>81</v>
       </c>
       <c r="B76" s="14">
-        <v>14.2572</v>
+        <v>14.2903</v>
       </c>
       <c r="C76" s="15">
-        <v>0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="D76" s="16">
-        <v>20372415</v>
+        <v>20591533</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -2310,13 +2328,13 @@
         <v>82</v>
       </c>
       <c r="B77" s="14">
-        <v>14.2319</v>
+        <v>14.3138</v>
       </c>
       <c r="C77" s="15">
-        <v>1.18</v>
+        <v>-0.03</v>
       </c>
       <c r="D77" s="16">
-        <v>20322696</v>
+        <v>20416510</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -2326,13 +2344,13 @@
         <v>83</v>
       </c>
       <c r="B78" s="14">
-        <v>14.0663</v>
+        <v>14.3184</v>
       </c>
       <c r="C78" s="15">
-        <v>-0.54</v>
+        <v>0.34</v>
       </c>
       <c r="D78" s="16">
-        <v>19749412</v>
+        <v>20375465</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -2342,13 +2360,13 @@
         <v>84</v>
       </c>
       <c r="B79" s="14">
-        <v>14.1427</v>
+        <v>14.2694</v>
       </c>
       <c r="C79" s="15">
-        <v>0.86</v>
+        <v>0.02</v>
       </c>
       <c r="D79" s="16">
-        <v>18764505</v>
+        <v>20292025</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -2358,13 +2376,13 @@
         <v>85</v>
       </c>
       <c r="B80" s="14">
-        <v>14.022</v>
+        <v>14.266</v>
       </c>
       <c r="C80" s="15">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="D80" s="16">
-        <v>18271214</v>
+        <v>20329763</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -2374,13 +2392,13 @@
         <v>86</v>
       </c>
       <c r="B81" s="14">
-        <v>13.9466</v>
+        <v>14.2337</v>
       </c>
       <c r="C81" s="15">
-        <v>0.65</v>
+        <v>-0.17</v>
       </c>
       <c r="D81" s="16">
-        <v>18210255</v>
+        <v>20319771</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -2390,13 +2408,13 @@
         <v>87</v>
       </c>
       <c r="B82" s="14">
-        <v>13.8567</v>
+        <v>14.2572</v>
       </c>
       <c r="C82" s="15">
-        <v>0.8</v>
+        <v>0.18</v>
       </c>
       <c r="D82" s="16">
-        <v>18236514</v>
+        <v>20372415</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -2406,13 +2424,13 @@
         <v>88</v>
       </c>
       <c r="B83" s="14">
-        <v>13.7473</v>
+        <v>14.2319</v>
       </c>
       <c r="C83" s="15">
-        <v>-0.59</v>
+        <v>1.18</v>
       </c>
       <c r="D83" s="16">
-        <v>18303967</v>
+        <v>20322696</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -2422,13 +2440,13 @@
         <v>89</v>
       </c>
       <c r="B84" s="14">
-        <v>13.8294</v>
+        <v>14.0663</v>
       </c>
       <c r="C84" s="15">
-        <v>-0.06</v>
+        <v>-0.54</v>
       </c>
       <c r="D84" s="16">
-        <v>18441258</v>
+        <v>19749412</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -2438,13 +2456,13 @@
         <v>90</v>
       </c>
       <c r="B85" s="14">
-        <v>13.8377</v>
+        <v>14.1427</v>
       </c>
       <c r="C85" s="15">
-        <v>-1</v>
+        <v>0.86</v>
       </c>
       <c r="D85" s="16">
-        <v>18545907</v>
+        <v>18764505</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -2454,13 +2472,13 @@
         <v>91</v>
       </c>
       <c r="B86" s="14">
-        <v>13.9769</v>
+        <v>14.022</v>
       </c>
       <c r="C86" s="15">
-        <v>0.07</v>
+        <v>0.54</v>
       </c>
       <c r="D86" s="16">
-        <v>18671095</v>
+        <v>18271214</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -2470,13 +2488,13 @@
         <v>92</v>
       </c>
       <c r="B87" s="14">
-        <v>13.9674</v>
+        <v>13.9466</v>
       </c>
       <c r="C87" s="15">
-        <v>-0.54</v>
+        <v>0.65</v>
       </c>
       <c r="D87" s="16">
-        <v>18776963</v>
+        <v>18210255</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -2486,13 +2504,13 @@
         <v>93</v>
       </c>
       <c r="B88" s="14">
-        <v>14.0435</v>
+        <v>13.8567</v>
       </c>
       <c r="C88" s="15">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
       <c r="D88" s="16">
-        <v>18835597</v>
+        <v>18236514</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -2502,13 +2520,13 @@
         <v>94</v>
       </c>
       <c r="B89" s="14">
-        <v>13.9962</v>
+        <v>13.7473</v>
       </c>
       <c r="C89" s="15">
-        <v>0.03</v>
+        <v>-0.59</v>
       </c>
       <c r="D89" s="16">
-        <v>18875257</v>
+        <v>18303967</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -2518,13 +2536,13 @@
         <v>95</v>
       </c>
       <c r="B90" s="14">
-        <v>13.9922</v>
+        <v>13.8294</v>
       </c>
       <c r="C90" s="15">
-        <v>-0.66</v>
+        <v>-0.06</v>
       </c>
       <c r="D90" s="16">
-        <v>18825827</v>
+        <v>18441258</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -2534,13 +2552,13 @@
         <v>96</v>
       </c>
       <c r="B91" s="14">
-        <v>14.0845</v>
+        <v>13.8377</v>
       </c>
       <c r="C91" s="15">
-        <v>0.9</v>
+        <v>-1</v>
       </c>
       <c r="D91" s="16">
-        <v>18364121</v>
+        <v>18545907</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
@@ -2550,13 +2568,13 @@
         <v>97</v>
       </c>
       <c r="B92" s="14">
-        <v>13.9586</v>
+        <v>13.9769</v>
       </c>
       <c r="C92" s="15">
-        <v>-0.15</v>
+        <v>0.07</v>
       </c>
       <c r="D92" s="16">
-        <v>18284776</v>
+        <v>18671095</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -2566,13 +2584,13 @@
         <v>98</v>
       </c>
       <c r="B93" s="14">
-        <v>13.9788</v>
+        <v>13.9674</v>
       </c>
       <c r="C93" s="15">
-        <v>-0.76</v>
+        <v>-0.54</v>
       </c>
       <c r="D93" s="16">
-        <v>18342371</v>
+        <v>18776963</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -2582,13 +2600,13 @@
         <v>99</v>
       </c>
       <c r="B94" s="14">
-        <v>14.0863</v>
+        <v>14.0435</v>
       </c>
       <c r="C94" s="15">
-        <v>0.07</v>
+        <v>0.34</v>
       </c>
       <c r="D94" s="16">
-        <v>18424532</v>
+        <v>18835597</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -2598,13 +2616,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="14">
-        <v>14.0764</v>
+        <v>13.9962</v>
       </c>
       <c r="C95" s="15">
-        <v>-0.33</v>
+        <v>0.03</v>
       </c>
       <c r="D95" s="16">
-        <v>18445080</v>
+        <v>18875257</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -2614,13 +2632,13 @@
         <v>101</v>
       </c>
       <c r="B96" s="14">
-        <v>14.1224</v>
+        <v>13.9922</v>
       </c>
       <c r="C96" s="15">
-        <v>-0.42</v>
+        <v>-0.66</v>
       </c>
       <c r="D96" s="16">
-        <v>17813846</v>
+        <v>18825827</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -2630,13 +2648,13 @@
         <v>102</v>
       </c>
       <c r="B97" s="14">
-        <v>14.1822</v>
+        <v>14.0845</v>
       </c>
       <c r="C97" s="15">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="D97" s="16">
-        <v>17855054</v>
+        <v>18364121</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -2646,13 +2664,13 @@
         <v>103</v>
       </c>
       <c r="B98" s="14">
-        <v>14.095</v>
+        <v>13.9586</v>
       </c>
       <c r="C98" s="15">
-        <v>0.61</v>
+        <v>-0.15</v>
       </c>
       <c r="D98" s="16">
-        <v>17944906</v>
+        <v>18284776</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -2662,13 +2680,13 @@
         <v>104</v>
       </c>
       <c r="B99" s="14">
-        <v>14.0101</v>
+        <v>13.9788</v>
       </c>
       <c r="C99" s="15">
-        <v>0.1</v>
+        <v>-0.76</v>
       </c>
       <c r="D99" s="16">
-        <v>18048746</v>
+        <v>18342371</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -2678,13 +2696,13 @@
         <v>105</v>
       </c>
       <c r="B100" s="14">
-        <v>13.9959</v>
+        <v>14.0863</v>
       </c>
       <c r="C100" s="15">
-        <v>-0.01</v>
+        <v>0.07</v>
       </c>
       <c r="D100" s="16">
-        <v>18112954</v>
+        <v>18424532</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -2694,13 +2712,13 @@
         <v>106</v>
       </c>
       <c r="B101" s="14">
-        <v>13.997</v>
+        <v>14.0764</v>
       </c>
       <c r="C101" s="15">
-        <v>-0.63</v>
+        <v>-0.33</v>
       </c>
       <c r="D101" s="16">
-        <v>18156436</v>
+        <v>18445080</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -2710,13 +2728,13 @@
         <v>107</v>
       </c>
       <c r="B102" s="14">
-        <v>14.0851</v>
+        <v>14.1224</v>
       </c>
       <c r="C102" s="15">
-        <v>0.17</v>
+        <v>-0.42</v>
       </c>
       <c r="D102" s="16">
-        <v>17758697</v>
+        <v>17813846</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -2726,13 +2744,13 @@
         <v>108</v>
       </c>
       <c r="B103" s="14">
-        <v>14.0615</v>
+        <v>14.1822</v>
       </c>
       <c r="C103" s="15">
-        <v>0.45</v>
+        <v>0.62</v>
       </c>
       <c r="D103" s="16">
-        <v>17190410</v>
+        <v>17855054</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -2742,13 +2760,13 @@
         <v>109</v>
       </c>
       <c r="B104" s="14">
-        <v>13.9985</v>
+        <v>14.095</v>
       </c>
       <c r="C104" s="15">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="D104" s="16">
-        <v>16952800</v>
+        <v>17944906</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -2758,13 +2776,13 @@
         <v>110</v>
       </c>
       <c r="B105" s="14">
-        <v>13.9472</v>
+        <v>14.0101</v>
       </c>
       <c r="C105" s="15">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="D105" s="16">
-        <v>16984701</v>
+        <v>18048746</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -2774,13 +2792,13 @@
         <v>111</v>
       </c>
       <c r="B106" s="14">
-        <v>13.8937</v>
+        <v>13.9959</v>
       </c>
       <c r="C106" s="15">
-        <v>-0.65</v>
+        <v>-0.01</v>
       </c>
       <c r="D106" s="16">
-        <v>17011954</v>
+        <v>18112954</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -2790,13 +2808,13 @@
         <v>112</v>
       </c>
       <c r="B107" s="14">
-        <v>13.9847</v>
+        <v>13.997</v>
       </c>
       <c r="C107" s="15">
-        <v>0.95</v>
+        <v>-0.63</v>
       </c>
       <c r="D107" s="16">
-        <v>17035674</v>
+        <v>18156436</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -2806,13 +2824,13 @@
         <v>113</v>
       </c>
       <c r="B108" s="14">
-        <v>13.8534</v>
+        <v>14.0851</v>
       </c>
       <c r="C108" s="15">
-        <v>-0.34</v>
+        <v>0.17</v>
       </c>
       <c r="D108" s="16">
-        <v>16555499</v>
+        <v>17758697</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -2822,13 +2840,13 @@
         <v>114</v>
       </c>
       <c r="B109" s="14">
-        <v>13.8999</v>
+        <v>14.0615</v>
       </c>
       <c r="C109" s="15">
-        <v>-0.27</v>
+        <v>0.45</v>
       </c>
       <c r="D109" s="16">
-        <v>16564445</v>
+        <v>17190410</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -2838,13 +2856,13 @@
         <v>115</v>
       </c>
       <c r="B110" s="14">
-        <v>13.9379</v>
+        <v>13.9985</v>
       </c>
       <c r="C110" s="15">
-        <v>0.07</v>
+        <v>0.37</v>
       </c>
       <c r="D110" s="16">
-        <v>16601729</v>
+        <v>16952800</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -2854,13 +2872,13 @@
         <v>116</v>
       </c>
       <c r="B111" s="14">
-        <v>13.9288</v>
+        <v>13.9472</v>
       </c>
       <c r="C111" s="15">
-        <v>-0.02</v>
+        <v>0.39</v>
       </c>
       <c r="D111" s="16">
-        <v>16602821</v>
+        <v>16984701</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -2870,13 +2888,13 @@
         <v>117</v>
       </c>
       <c r="B112" s="14">
-        <v>13.9309</v>
+        <v>13.8937</v>
       </c>
       <c r="C112" s="15">
-        <v>0.38</v>
+        <v>-0.65</v>
       </c>
       <c r="D112" s="16">
-        <v>16604572</v>
+        <v>17011954</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -2886,13 +2904,13 @@
         <v>118</v>
       </c>
       <c r="B113" s="14">
-        <v>13.8785</v>
+        <v>13.9847</v>
       </c>
       <c r="C113" s="15">
-        <v>-0.14</v>
+        <v>0.95</v>
       </c>
       <c r="D113" s="16">
-        <v>16580643</v>
+        <v>17035674</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -2902,13 +2920,13 @@
         <v>119</v>
       </c>
       <c r="B114" s="14">
-        <v>13.8972</v>
+        <v>13.8534</v>
       </c>
       <c r="C114" s="15">
-        <v>0.36</v>
+        <v>-0.34</v>
       </c>
       <c r="D114" s="16">
-        <v>16067893</v>
+        <v>16555499</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -2918,13 +2936,13 @@
         <v>120</v>
       </c>
       <c r="B115" s="14">
-        <v>13.8471</v>
+        <v>13.8999</v>
       </c>
       <c r="C115" s="15">
-        <v>0.11</v>
+        <v>-0.27</v>
       </c>
       <c r="D115" s="16">
-        <v>15348175</v>
+        <v>16564445</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -2934,13 +2952,13 @@
         <v>121</v>
       </c>
       <c r="B116" s="14">
-        <v>13.8326</v>
+        <v>13.9379</v>
       </c>
       <c r="C116" s="15">
         <v>0.07</v>
       </c>
       <c r="D116" s="16">
-        <v>15107843</v>
+        <v>16601729</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -2950,13 +2968,13 @@
         <v>122</v>
       </c>
       <c r="B117" s="14">
-        <v>13.8236</v>
+        <v>13.9288</v>
       </c>
       <c r="C117" s="15">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="D117" s="16">
-        <v>14970972</v>
+        <v>16602821</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -2966,13 +2984,13 @@
         <v>123</v>
       </c>
       <c r="B118" s="14">
-        <v>13.8241</v>
+        <v>13.9309</v>
       </c>
       <c r="C118" s="15">
-        <v>-0.28</v>
+        <v>0.38</v>
       </c>
       <c r="D118" s="16">
-        <v>15045700</v>
+        <v>16604572</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
@@ -2982,13 +3000,13 @@
         <v>124</v>
       </c>
       <c r="B119" s="14">
-        <v>13.8632</v>
+        <v>13.8785</v>
       </c>
       <c r="C119" s="15">
-        <v>-1.08</v>
+        <v>-0.14</v>
       </c>
       <c r="D119" s="16">
-        <v>15031857</v>
+        <v>16580643</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -2998,13 +3016,13 @@
         <v>125</v>
       </c>
       <c r="B120" s="14">
-        <v>14.014</v>
+        <v>13.8972</v>
       </c>
       <c r="C120" s="15">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="D120" s="16">
-        <v>14669668</v>
+        <v>16067893</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
@@ -3014,13 +3032,13 @@
         <v>126</v>
       </c>
       <c r="B121" s="14">
-        <v>13.9557</v>
+        <v>13.8471</v>
       </c>
       <c r="C121" s="15">
-        <v>1.17</v>
+        <v>0.11</v>
       </c>
       <c r="D121" s="16">
-        <v>14653804</v>
+        <v>15348175</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -3030,13 +3048,13 @@
         <v>127</v>
       </c>
       <c r="B122" s="14">
-        <v>13.7949</v>
+        <v>13.8326</v>
       </c>
       <c r="C122" s="15">
-        <v>-0.28</v>
+        <v>0.07</v>
       </c>
       <c r="D122" s="16">
-        <v>14652445</v>
+        <v>15107843</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -3046,13 +3064,13 @@
         <v>128</v>
       </c>
       <c r="B123" s="14">
-        <v>13.8331</v>
+        <v>13.8236</v>
       </c>
       <c r="C123" s="15">
-        <v>-1.18</v>
+        <v>0</v>
       </c>
       <c r="D123" s="16">
-        <v>14639361</v>
+        <v>14970972</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -3062,13 +3080,13 @@
         <v>129</v>
       </c>
       <c r="B124" s="14">
-        <v>13.9982</v>
+        <v>13.8241</v>
       </c>
       <c r="C124" s="15">
-        <v>1.11</v>
+        <v>-0.28</v>
       </c>
       <c r="D124" s="16">
-        <v>14636809</v>
+        <v>15045700</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
@@ -3078,13 +3096,13 @@
         <v>130</v>
       </c>
       <c r="B125" s="14">
-        <v>13.845</v>
+        <v>13.8632</v>
       </c>
       <c r="C125" s="15">
-        <v>-1.07</v>
+        <v>-1.08</v>
       </c>
       <c r="D125" s="16">
-        <v>14433805</v>
+        <v>15031857</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -3094,13 +3112,13 @@
         <v>131</v>
       </c>
       <c r="B126" s="14">
-        <v>13.9953</v>
+        <v>14.014</v>
       </c>
       <c r="C126" s="15">
-        <v>-0.27</v>
+        <v>0.42</v>
       </c>
       <c r="D126" s="16">
-        <v>13989441</v>
+        <v>14669668</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -3110,13 +3128,13 @@
         <v>132</v>
       </c>
       <c r="B127" s="14">
-        <v>14.0336</v>
+        <v>13.9557</v>
       </c>
       <c r="C127" s="15">
-        <v>-0.38</v>
+        <v>1.17</v>
       </c>
       <c r="D127" s="16">
-        <v>13566681</v>
+        <v>14653804</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -3126,13 +3144,13 @@
         <v>133</v>
       </c>
       <c r="B128" s="14">
-        <v>14.087</v>
+        <v>13.7949</v>
       </c>
       <c r="C128" s="15">
-        <v>0.34</v>
+        <v>-0.28</v>
       </c>
       <c r="D128" s="16">
-        <v>13137192</v>
+        <v>14652445</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -3142,13 +3160,13 @@
         <v>134</v>
       </c>
       <c r="B129" s="14">
-        <v>14.0394</v>
+        <v>13.8331</v>
       </c>
       <c r="C129" s="15">
-        <v>1.17</v>
+        <v>-1.18</v>
       </c>
       <c r="D129" s="16">
-        <v>12985801</v>
+        <v>14639361</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -3158,13 +3176,13 @@
         <v>135</v>
       </c>
       <c r="B130" s="14">
-        <v>13.8773</v>
+        <v>13.9982</v>
       </c>
       <c r="C130" s="15">
-        <v>0.97</v>
+        <v>1.11</v>
       </c>
       <c r="D130" s="16">
-        <v>12941290</v>
+        <v>14636809</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
@@ -3174,13 +3192,13 @@
         <v>136</v>
       </c>
       <c r="B131" s="14">
-        <v>13.7443</v>
+        <v>13.845</v>
       </c>
       <c r="C131" s="15">
-        <v>0.04</v>
+        <v>-1.07</v>
       </c>
       <c r="D131" s="16">
-        <v>12972634</v>
+        <v>14433805</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
@@ -3190,13 +3208,13 @@
         <v>137</v>
       </c>
       <c r="B132" s="14">
-        <v>13.7392</v>
+        <v>13.9953</v>
       </c>
       <c r="C132" s="15">
-        <v>0.73</v>
+        <v>-0.27</v>
       </c>
       <c r="D132" s="16">
-        <v>12694568</v>
+        <v>13989441</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
@@ -3206,13 +3224,13 @@
         <v>138</v>
       </c>
       <c r="B133" s="14">
-        <v>13.6402</v>
+        <v>14.0336</v>
       </c>
       <c r="C133" s="15">
-        <v>-0.28</v>
+        <v>-0.38</v>
       </c>
       <c r="D133" s="16">
-        <v>12659561</v>
+        <v>13566681</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -3222,13 +3240,13 @@
         <v>139</v>
       </c>
       <c r="B134" s="14">
-        <v>13.678</v>
+        <v>14.087</v>
       </c>
       <c r="C134" s="15">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="D134" s="16">
-        <v>12821290</v>
+        <v>13137192</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -3238,13 +3256,13 @@
         <v>140</v>
       </c>
       <c r="B135" s="14">
-        <v>13.6484</v>
+        <v>14.0394</v>
       </c>
       <c r="C135" s="15">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="D135" s="16">
-        <v>12815298</v>
+        <v>12985801</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -3254,13 +3272,13 @@
         <v>141</v>
       </c>
       <c r="B136" s="14">
-        <v>13.5523</v>
+        <v>13.8773</v>
       </c>
       <c r="C136" s="15">
-        <v>-0.16</v>
+        <v>0.97</v>
       </c>
       <c r="D136" s="16">
-        <v>12778173</v>
+        <v>12941290</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -3270,13 +3288,13 @@
         <v>142</v>
       </c>
       <c r="B137" s="14">
-        <v>13.5734</v>
+        <v>13.7443</v>
       </c>
       <c r="C137" s="15">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="D137" s="16">
-        <v>12525374</v>
+        <v>12972634</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -3286,13 +3304,13 @@
         <v>143</v>
       </c>
       <c r="B138" s="14">
-        <v>13.5259</v>
+        <v>13.7392</v>
       </c>
       <c r="C138" s="15">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="D138" s="16">
-        <v>12222638</v>
+        <v>12694568</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -3302,13 +3320,13 @@
         <v>144</v>
       </c>
       <c r="B139" s="14">
-        <v>13.4447</v>
+        <v>13.6402</v>
       </c>
       <c r="C139" s="15">
-        <v>0.33</v>
+        <v>-0.28</v>
       </c>
       <c r="D139" s="16">
-        <v>11902533</v>
+        <v>12659561</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -3318,13 +3336,13 @@
         <v>145</v>
       </c>
       <c r="B140" s="14">
-        <v>13.4005</v>
+        <v>13.678</v>
       </c>
       <c r="C140" s="15">
         <v>0.22</v>
       </c>
       <c r="D140" s="16">
-        <v>11564711</v>
+        <v>12821290</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -3334,13 +3352,13 @@
         <v>146</v>
       </c>
       <c r="B141" s="14">
-        <v>13.3707</v>
+        <v>13.6484</v>
       </c>
       <c r="C141" s="15">
-        <v>0.34</v>
+        <v>0.71</v>
       </c>
       <c r="D141" s="16">
-        <v>11491616</v>
+        <v>12815298</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -3350,13 +3368,13 @@
         <v>147</v>
       </c>
       <c r="B142" s="14">
-        <v>13.3256</v>
+        <v>13.5523</v>
       </c>
       <c r="C142" s="15">
-        <v>0.93</v>
+        <v>-0.16</v>
       </c>
       <c r="D142" s="16">
-        <v>11511148</v>
+        <v>12778173</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
@@ -3366,13 +3384,13 @@
         <v>148</v>
       </c>
       <c r="B143" s="14">
-        <v>13.2028</v>
+        <v>13.5734</v>
       </c>
       <c r="C143" s="15">
-        <v>-0.53</v>
+        <v>0.35</v>
       </c>
       <c r="D143" s="16">
-        <v>11462549</v>
+        <v>12525374</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
@@ -3382,13 +3400,13 @@
         <v>149</v>
       </c>
       <c r="B144" s="14">
-        <v>13.2731</v>
+        <v>13.5259</v>
       </c>
       <c r="C144" s="15">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="D144" s="16">
-        <v>11252942</v>
+        <v>12222638</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
@@ -3398,13 +3416,13 @@
         <v>150</v>
       </c>
       <c r="B145" s="14">
-        <v>13.2446</v>
+        <v>13.4447</v>
       </c>
       <c r="C145" s="15">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="D145" s="16">
-        <v>11240222</v>
+        <v>11902533</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
@@ -3414,13 +3432,13 @@
         <v>151</v>
       </c>
       <c r="B146" s="14">
-        <v>13.1508</v>
+        <v>13.4005</v>
       </c>
       <c r="C146" s="15">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="D146" s="16">
-        <v>11279869</v>
+        <v>11564711</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
@@ -3430,13 +3448,13 @@
         <v>152</v>
       </c>
       <c r="B147" s="14">
-        <v>13.0979</v>
+        <v>13.3707</v>
       </c>
       <c r="C147" s="15">
-        <v>-0.21</v>
+        <v>0.34</v>
       </c>
       <c r="D147" s="16">
-        <v>11319939</v>
+        <v>11491616</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
@@ -3446,13 +3464,13 @@
         <v>153</v>
       </c>
       <c r="B148" s="14">
-        <v>13.1255</v>
+        <v>13.3256</v>
       </c>
       <c r="C148" s="15">
-        <v>0.31</v>
+        <v>0.93</v>
       </c>
       <c r="D148" s="16">
-        <v>11273680</v>
+        <v>11511148</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
@@ -3462,13 +3480,13 @@
         <v>154</v>
       </c>
       <c r="B149" s="14">
-        <v>13.0855</v>
+        <v>13.2028</v>
       </c>
       <c r="C149" s="15">
-        <v>-1</v>
+        <v>-0.53</v>
       </c>
       <c r="D149" s="16">
-        <v>10907008</v>
+        <v>11462549</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -3478,13 +3496,13 @@
         <v>155</v>
       </c>
       <c r="B150" s="14">
-        <v>13.2179</v>
+        <v>13.2731</v>
       </c>
       <c r="C150" s="15">
-        <v>-0.62</v>
+        <v>0.22</v>
       </c>
       <c r="D150" s="16">
-        <v>10664204</v>
+        <v>11252942</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
@@ -3494,13 +3512,13 @@
         <v>156</v>
       </c>
       <c r="B151" s="14">
-        <v>13.3002</v>
+        <v>13.2446</v>
       </c>
       <c r="C151" s="15">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="D151" s="16">
-        <v>9876428</v>
+        <v>11240222</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
@@ -3510,13 +3528,13 @@
         <v>157</v>
       </c>
       <c r="B152" s="14">
-        <v>13.1727</v>
+        <v>13.1508</v>
       </c>
       <c r="C152" s="15">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="D152" s="16">
-        <v>8896695</v>
+        <v>11279869</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
@@ -3526,13 +3544,13 @@
         <v>158</v>
       </c>
       <c r="B153" s="14">
-        <v>13.1256</v>
+        <v>13.0979</v>
       </c>
       <c r="C153" s="15">
-        <v>0.31</v>
+        <v>-0.21</v>
       </c>
       <c r="D153" s="16">
-        <v>8738282</v>
+        <v>11319939</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -3542,13 +3560,13 @@
         <v>159</v>
       </c>
       <c r="B154" s="14">
-        <v>13.0849</v>
+        <v>13.1255</v>
       </c>
       <c r="C154" s="15">
-        <v>-0.59</v>
+        <v>0.31</v>
       </c>
       <c r="D154" s="16">
-        <v>8668100</v>
+        <v>11273680</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
@@ -3558,13 +3576,13 @@
         <v>160</v>
       </c>
       <c r="B155" s="14">
-        <v>13.1621</v>
+        <v>13.0855</v>
       </c>
       <c r="C155" s="15">
-        <v>0.27</v>
+        <v>-1</v>
       </c>
       <c r="D155" s="16">
-        <v>8981828</v>
+        <v>10907008</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
@@ -3574,13 +3592,13 @@
         <v>161</v>
       </c>
       <c r="B156" s="14">
-        <v>13.1268</v>
+        <v>13.2179</v>
       </c>
       <c r="C156" s="15">
-        <v>0.54</v>
+        <v>-0.62</v>
       </c>
       <c r="D156" s="16">
-        <v>7580892</v>
+        <v>10664204</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
@@ -3590,13 +3608,13 @@
         <v>162</v>
       </c>
       <c r="B157" s="14">
-        <v>13.0564</v>
+        <v>13.3002</v>
       </c>
       <c r="C157" s="15">
-        <v>0.2</v>
+        <v>0.97</v>
       </c>
       <c r="D157" s="16">
-        <v>7496759</v>
+        <v>9876428</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
@@ -3606,13 +3624,13 @@
         <v>163</v>
       </c>
       <c r="B158" s="14">
-        <v>13.0298</v>
+        <v>13.1727</v>
       </c>
       <c r="C158" s="15">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="D158" s="16">
-        <v>7405096</v>
+        <v>8896695</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
@@ -3622,13 +3640,13 @@
         <v>164</v>
       </c>
       <c r="B159" s="14">
-        <v>13.0006</v>
+        <v>13.1256</v>
       </c>
       <c r="C159" s="15">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="D159" s="16">
-        <v>7348884</v>
+        <v>8738282</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
@@ -3638,13 +3656,13 @@
         <v>165</v>
       </c>
       <c r="B160" s="14">
-        <v>12.9666</v>
+        <v>13.0849</v>
       </c>
       <c r="C160" s="15">
-        <v>1.15</v>
+        <v>-0.59</v>
       </c>
       <c r="D160" s="16">
-        <v>7204621</v>
+        <v>8668100</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -3654,13 +3672,13 @@
         <v>166</v>
       </c>
       <c r="B161" s="14">
-        <v>12.8192</v>
+        <v>13.1621</v>
       </c>
       <c r="C161" s="15">
-        <v>-0.67</v>
+        <v>0.27</v>
       </c>
       <c r="D161" s="16">
-        <v>6739403</v>
+        <v>8981828</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
@@ -3670,13 +3688,13 @@
         <v>167</v>
       </c>
       <c r="B162" s="14">
-        <v>12.9052</v>
+        <v>13.1268</v>
       </c>
       <c r="C162" s="15">
-        <v>0.91</v>
+        <v>0.54</v>
       </c>
       <c r="D162" s="16">
-        <v>6150440</v>
+        <v>7580892</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
@@ -3686,13 +3704,13 @@
         <v>168</v>
       </c>
       <c r="B163" s="14">
-        <v>12.7893</v>
+        <v>13.0564</v>
       </c>
       <c r="C163" s="15">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="D163" s="16">
-        <v>5477565</v>
+        <v>7496759</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
@@ -3702,13 +3720,13 @@
         <v>169</v>
       </c>
       <c r="B164" s="14">
-        <v>12.7476</v>
+        <v>13.0298</v>
       </c>
       <c r="C164" s="15">
-        <v>-0.03</v>
+        <v>0.23</v>
       </c>
       <c r="D164" s="16">
-        <v>4610342</v>
+        <v>7405096</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
@@ -3718,13 +3736,13 @@
         <v>170</v>
       </c>
       <c r="B165" s="14">
-        <v>12.7519</v>
+        <v>13.0006</v>
       </c>
       <c r="C165" s="15">
-        <v>0.7</v>
+        <v>0.26</v>
       </c>
       <c r="D165" s="16">
-        <v>4446149</v>
+        <v>7348884</v>
       </c>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
@@ -3734,13 +3752,13 @@
         <v>171</v>
       </c>
       <c r="B166" s="14">
-        <v>12.6636</v>
+        <v>12.9666</v>
       </c>
       <c r="C166" s="15">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="D166" s="16">
-        <v>4373755</v>
+        <v>7204621</v>
       </c>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
@@ -3750,13 +3768,13 @@
         <v>172</v>
       </c>
       <c r="B167" s="14">
-        <v>12.5179</v>
+        <v>12.8192</v>
       </c>
       <c r="C167" s="15">
-        <v>2.49</v>
+        <v>-0.67</v>
       </c>
       <c r="D167" s="16">
-        <v>4232302</v>
+        <v>6739403</v>
       </c>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
@@ -3766,13 +3784,13 @@
         <v>173</v>
       </c>
       <c r="B168" s="14">
-        <v>12.214</v>
+        <v>12.9052</v>
       </c>
       <c r="C168" s="15">
-        <v>-1.27</v>
+        <v>0.91</v>
       </c>
       <c r="D168" s="16">
-        <v>4038721</v>
+        <v>6150440</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
@@ -3782,13 +3800,13 @@
         <v>174</v>
       </c>
       <c r="B169" s="14">
-        <v>12.3707</v>
+        <v>12.7893</v>
       </c>
       <c r="C169" s="15">
-        <v>-0.87</v>
+        <v>0.33</v>
       </c>
       <c r="D169" s="16">
-        <v>3942311</v>
+        <v>5477565</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
@@ -3798,13 +3816,13 @@
         <v>175</v>
       </c>
       <c r="B170" s="14">
-        <v>12.4788</v>
+        <v>12.7476</v>
       </c>
       <c r="C170" s="15">
-        <v>0.33</v>
+        <v>-0.03</v>
       </c>
       <c r="D170" s="16">
-        <v>3892723</v>
+        <v>4610342</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
@@ -3814,13 +3832,13 @@
         <v>176</v>
       </c>
       <c r="B171" s="14">
-        <v>12.4379</v>
+        <v>12.7519</v>
       </c>
       <c r="C171" s="15">
-        <v>2.22</v>
+        <v>0.7</v>
       </c>
       <c r="D171" s="16">
-        <v>3848519</v>
+        <v>4446149</v>
       </c>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
@@ -3830,13 +3848,13 @@
         <v>177</v>
       </c>
       <c r="B172" s="14">
-        <v>12.1674</v>
+        <v>12.6636</v>
       </c>
       <c r="C172" s="15">
-        <v>0.53</v>
+        <v>1.16</v>
       </c>
       <c r="D172" s="16">
-        <v>3819107</v>
+        <v>4373755</v>
       </c>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
@@ -3846,13 +3864,13 @@
         <v>178</v>
       </c>
       <c r="B173" s="14">
-        <v>12.1034</v>
+        <v>12.5179</v>
       </c>
       <c r="C173" s="15">
-        <v>0.15</v>
+        <v>2.49</v>
       </c>
       <c r="D173" s="16">
-        <v>3631676</v>
+        <v>4232302</v>
       </c>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
@@ -3862,13 +3880,13 @@
         <v>179</v>
       </c>
       <c r="B174" s="14">
-        <v>12.0853</v>
+        <v>12.214</v>
       </c>
       <c r="C174" s="15">
-        <v>0.92</v>
+        <v>-1.27</v>
       </c>
       <c r="D174" s="16">
-        <v>3361434</v>
+        <v>4038721</v>
       </c>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
@@ -3878,13 +3896,13 @@
         <v>180</v>
       </c>
       <c r="B175" s="14">
-        <v>11.9757</v>
+        <v>12.3707</v>
       </c>
       <c r="C175" s="15">
-        <v>0.41</v>
+        <v>-0.87</v>
       </c>
       <c r="D175" s="16">
-        <v>2938660</v>
+        <v>3942311</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
@@ -3894,13 +3912,13 @@
         <v>181</v>
       </c>
       <c r="B176" s="14">
-        <v>11.9265</v>
+        <v>12.4788</v>
       </c>
       <c r="C176" s="15">
-        <v>-0.67</v>
+        <v>0.33</v>
       </c>
       <c r="D176" s="16">
-        <v>2728134</v>
+        <v>3892723</v>
       </c>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
@@ -3910,13 +3928,13 @@
         <v>182</v>
       </c>
       <c r="B177" s="14">
-        <v>12.0069</v>
+        <v>12.4379</v>
       </c>
       <c r="C177" s="15">
-        <v>0.2</v>
+        <v>2.22</v>
       </c>
       <c r="D177" s="16">
-        <v>2719630</v>
+        <v>3848519</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
@@ -3926,13 +3944,13 @@
         <v>183</v>
       </c>
       <c r="B178" s="14">
-        <v>11.9827</v>
+        <v>12.1674</v>
       </c>
       <c r="C178" s="15">
-        <v>-0.88</v>
+        <v>0.53</v>
       </c>
       <c r="D178" s="16">
-        <v>2688147</v>
+        <v>3819107</v>
       </c>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
@@ -3942,13 +3960,13 @@
         <v>184</v>
       </c>
       <c r="B179" s="14">
-        <v>12.0885</v>
+        <v>12.1034</v>
       </c>
       <c r="C179" s="15">
-        <v>-0.57</v>
+        <v>0.15</v>
       </c>
       <c r="D179" s="16">
-        <v>2609918</v>
+        <v>3631676</v>
       </c>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
@@ -3958,13 +3976,13 @@
         <v>185</v>
       </c>
       <c r="B180" s="14">
-        <v>12.1577</v>
+        <v>12.0853</v>
       </c>
       <c r="C180" s="15">
-        <v>-0.95</v>
+        <v>0.92</v>
       </c>
       <c r="D180" s="16">
-        <v>2382996</v>
+        <v>3361434</v>
       </c>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
@@ -3974,13 +3992,13 @@
         <v>186</v>
       </c>
       <c r="B181" s="14">
-        <v>12.2745</v>
+        <v>11.9757</v>
       </c>
       <c r="C181" s="15">
-        <v>-0.52</v>
+        <v>0.41</v>
       </c>
       <c r="D181" s="16">
-        <v>2331599</v>
+        <v>2938660</v>
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
@@ -3990,13 +4008,13 @@
         <v>187</v>
       </c>
       <c r="B182" s="14">
-        <v>12.3391</v>
+        <v>11.9265</v>
       </c>
       <c r="C182" s="15">
-        <v>-0.61</v>
+        <v>-0.67</v>
       </c>
       <c r="D182" s="16">
-        <v>2255473</v>
+        <v>2728134</v>
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
@@ -4006,13 +4024,13 @@
         <v>188</v>
       </c>
       <c r="B183" s="14">
-        <v>12.4146</v>
+        <v>12.0069</v>
       </c>
       <c r="C183" s="15">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="D183" s="16">
-        <v>2190337</v>
+        <v>2719630</v>
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
@@ -4022,13 +4040,13 @@
         <v>189</v>
       </c>
       <c r="B184" s="14">
-        <v>12.2069</v>
+        <v>11.9827</v>
       </c>
       <c r="C184" s="15">
-        <v>0.06</v>
+        <v>-0.88</v>
       </c>
       <c r="D184" s="16">
-        <v>2136945</v>
+        <v>2688147</v>
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
@@ -4038,13 +4056,13 @@
         <v>190</v>
       </c>
       <c r="B185" s="14">
-        <v>12.2</v>
+        <v>12.0885</v>
       </c>
       <c r="C185" s="15">
-        <v>-0.03</v>
+        <v>-0.57</v>
       </c>
       <c r="D185" s="16">
-        <v>1912961</v>
+        <v>2609918</v>
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -4054,13 +4072,13 @@
         <v>191</v>
       </c>
       <c r="B186" s="14">
-        <v>12.2039</v>
+        <v>12.1577</v>
       </c>
       <c r="C186" s="15">
-        <v>1.06</v>
+        <v>-0.95</v>
       </c>
       <c r="D186" s="16">
-        <v>1647911</v>
+        <v>2382996</v>
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
@@ -4070,13 +4088,13 @@
         <v>192</v>
       </c>
       <c r="B187" s="14">
-        <v>12.0758</v>
+        <v>12.2745</v>
       </c>
       <c r="C187" s="15">
-        <v>0.22</v>
+        <v>-0.52</v>
       </c>
       <c r="D187" s="16">
-        <v>1294332</v>
+        <v>2331599</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
@@ -4086,13 +4104,13 @@
         <v>193</v>
       </c>
       <c r="B188" s="14">
-        <v>12.0493</v>
+        <v>12.3391</v>
       </c>
       <c r="C188" s="15">
-        <v>0.26</v>
+        <v>-0.61</v>
       </c>
       <c r="D188" s="16">
-        <v>1062837</v>
+        <v>2255473</v>
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
@@ -4102,13 +4120,13 @@
         <v>194</v>
       </c>
       <c r="B189" s="14">
-        <v>12.0181</v>
+        <v>12.4146</v>
       </c>
       <c r="C189" s="15">
-        <v>0.78</v>
+        <v>1.7</v>
       </c>
       <c r="D189" s="16">
-        <v>928815</v>
+        <v>2190337</v>
       </c>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -4118,13 +4136,13 @@
         <v>195</v>
       </c>
       <c r="B190" s="14">
-        <v>11.9249</v>
+        <v>12.2069</v>
       </c>
       <c r="C190" s="15">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="D190" s="16">
-        <v>848138</v>
+        <v>2136945</v>
       </c>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
@@ -4134,13 +4152,13 @@
         <v>196</v>
       </c>
       <c r="B191" s="14">
-        <v>11.8533</v>
+        <v>12.2</v>
       </c>
       <c r="C191" s="15">
-        <v>-0.62</v>
+        <v>-0.03</v>
       </c>
       <c r="D191" s="16">
-        <v>767931</v>
+        <v>1912961</v>
       </c>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
@@ -4150,13 +4168,13 @@
         <v>197</v>
       </c>
       <c r="B192" s="14">
-        <v>11.9267</v>
+        <v>12.2039</v>
       </c>
       <c r="C192" s="15">
-        <v>0.82</v>
+        <v>1.06</v>
       </c>
       <c r="D192" s="16">
-        <v>661974</v>
+        <v>1647911</v>
       </c>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
@@ -4166,13 +4184,13 @@
         <v>198</v>
       </c>
       <c r="B193" s="14">
-        <v>11.83</v>
+        <v>12.0758</v>
       </c>
       <c r="C193" s="15">
-        <v>-0.17</v>
+        <v>0.22</v>
       </c>
       <c r="D193" s="16">
-        <v>640811</v>
+        <v>1294332</v>
       </c>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
@@ -4182,13 +4200,13 @@
         <v>199</v>
       </c>
       <c r="B194" s="14">
-        <v>11.85</v>
+        <v>12.0493</v>
       </c>
       <c r="C194" s="15">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="D194" s="16">
-        <v>612687</v>
+        <v>1062837</v>
       </c>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
@@ -4198,13 +4216,13 @@
         <v>200</v>
       </c>
       <c r="B195" s="14">
-        <v>11.8</v>
+        <v>12.0181</v>
       </c>
       <c r="C195" s="15">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="D195" s="16">
-        <v>605714</v>
+        <v>928815</v>
       </c>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
@@ -4214,13 +4232,13 @@
         <v>201</v>
       </c>
       <c r="B196" s="14">
-        <v>11.753</v>
+        <v>11.9249</v>
       </c>
       <c r="C196" s="15">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="D196" s="16">
-        <v>584101</v>
+        <v>848138</v>
       </c>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
@@ -4230,13 +4248,13 @@
         <v>202</v>
       </c>
       <c r="B197" s="14">
-        <v>11.715</v>
+        <v>11.8533</v>
       </c>
       <c r="C197" s="15">
-        <v>0.75</v>
+        <v>-0.62</v>
       </c>
       <c r="D197" s="16">
-        <v>534600</v>
+        <v>767931</v>
       </c>
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
@@ -4246,13 +4264,13 @@
         <v>203</v>
       </c>
       <c r="B198" s="14">
-        <v>11.628</v>
+        <v>11.9267</v>
       </c>
       <c r="C198" s="15">
-        <v>-0.36</v>
+        <v>0.82</v>
       </c>
       <c r="D198" s="16">
-        <v>396802</v>
+        <v>661974</v>
       </c>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
@@ -4262,13 +4280,13 @@
         <v>204</v>
       </c>
       <c r="B199" s="14">
-        <v>11.67</v>
+        <v>11.83</v>
       </c>
       <c r="C199" s="15">
-        <v>-0.11</v>
+        <v>-0.17</v>
       </c>
       <c r="D199" s="16">
-        <v>265881</v>
+        <v>640811</v>
       </c>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
@@ -4278,13 +4296,13 @@
         <v>205</v>
       </c>
       <c r="B200" s="14">
-        <v>11.683</v>
+        <v>11.85</v>
       </c>
       <c r="C200" s="15">
-        <v>-0.18</v>
+        <v>0.42</v>
       </c>
       <c r="D200" s="16">
-        <v>244798</v>
+        <v>612687</v>
       </c>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
@@ -4294,13 +4312,13 @@
         <v>206</v>
       </c>
       <c r="B201" s="14">
-        <v>11.704</v>
+        <v>11.8</v>
       </c>
       <c r="C201" s="15">
-        <v>0.84</v>
+        <v>0.4</v>
       </c>
       <c r="D201" s="16">
-        <v>227751</v>
+        <v>605714</v>
       </c>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
@@ -4310,13 +4328,13 @@
         <v>207</v>
       </c>
       <c r="B202" s="14">
-        <v>11.607</v>
+        <v>11.753</v>
       </c>
       <c r="C202" s="15">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="D202" s="16">
-        <v>214864</v>
+        <v>584101</v>
       </c>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
@@ -4326,13 +4344,13 @@
         <v>208</v>
       </c>
       <c r="B203" s="14">
-        <v>11.604</v>
+        <v>11.715</v>
       </c>
       <c r="C203" s="15">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="D203" s="16">
-        <v>173999</v>
+        <v>534600</v>
       </c>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
@@ -4342,13 +4360,13 @@
         <v>209</v>
       </c>
       <c r="B204" s="14">
-        <v>11.496</v>
+        <v>11.628</v>
       </c>
       <c r="C204" s="15">
-        <v>1.43</v>
+        <v>-0.36</v>
       </c>
       <c r="D204" s="16">
-        <v>158951</v>
+        <v>396802</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
@@ -4358,13 +4376,13 @@
         <v>210</v>
       </c>
       <c r="B205" s="14">
-        <v>11.334</v>
+        <v>11.67</v>
       </c>
       <c r="C205" s="15">
-        <v>3.6</v>
+        <v>-0.11</v>
       </c>
       <c r="D205" s="16">
-        <v>153245</v>
+        <v>265881</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
@@ -4374,13 +4392,13 @@
         <v>211</v>
       </c>
       <c r="B206" s="14">
-        <v>10.94</v>
+        <v>11.683</v>
       </c>
       <c r="C206" s="15">
-        <v>0.52</v>
+        <v>-0.18</v>
       </c>
       <c r="D206" s="16">
-        <v>150460</v>
+        <v>244798</v>
       </c>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
@@ -4390,13 +4408,13 @@
         <v>212</v>
       </c>
       <c r="B207" s="14">
-        <v>10.884</v>
+        <v>11.704</v>
       </c>
       <c r="C207" s="15">
-        <v>1.57</v>
+        <v>0.84</v>
       </c>
       <c r="D207" s="16">
-        <v>149975</v>
+        <v>227751</v>
       </c>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -4406,13 +4424,13 @@
         <v>213</v>
       </c>
       <c r="B208" s="14">
-        <v>10.716</v>
+        <v>11.607</v>
       </c>
       <c r="C208" s="15">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="D208" s="16">
-        <v>146802</v>
+        <v>214864</v>
       </c>
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
@@ -4422,13 +4440,13 @@
         <v>214</v>
       </c>
       <c r="B209" s="14">
-        <v>10.677</v>
+        <v>11.604</v>
       </c>
       <c r="C209" s="15">
-        <v>-0.43</v>
+        <v>0.94</v>
       </c>
       <c r="D209" s="16">
-        <v>55851</v>
+        <v>173999</v>
       </c>
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
@@ -4438,13 +4456,13 @@
         <v>215</v>
       </c>
       <c r="B210" s="14">
-        <v>10.723</v>
+        <v>11.496</v>
       </c>
       <c r="C210" s="15">
-        <v>-0.94</v>
+        <v>1.43</v>
       </c>
       <c r="D210" s="16">
-        <v>55484</v>
+        <v>158951</v>
       </c>
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
@@ -4454,13 +4472,13 @@
         <v>216</v>
       </c>
       <c r="B211" s="14">
-        <v>10.825</v>
+        <v>11.334</v>
       </c>
       <c r="C211" s="15">
-        <v>-1.17</v>
+        <v>3.6</v>
       </c>
       <c r="D211" s="16">
-        <v>53984</v>
+        <v>153245</v>
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
@@ -4470,13 +4488,13 @@
         <v>217</v>
       </c>
       <c r="B212" s="14">
-        <v>10.953</v>
+        <v>10.94</v>
       </c>
       <c r="C212" s="15">
-        <v>-0.73</v>
+        <v>0.52</v>
       </c>
       <c r="D212" s="16">
-        <v>49996</v>
+        <v>150460</v>
       </c>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -4486,13 +4504,13 @@
         <v>218</v>
       </c>
       <c r="B213" s="14">
-        <v>11.033</v>
+        <v>10.884</v>
       </c>
       <c r="C213" s="15">
-        <v>1.09</v>
+        <v>1.57</v>
       </c>
       <c r="D213" s="16">
-        <v>46812</v>
+        <v>149975</v>
       </c>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
@@ -4502,13 +4520,13 @@
         <v>219</v>
       </c>
       <c r="B214" s="14">
-        <v>10.914</v>
+        <v>10.716</v>
       </c>
       <c r="C214" s="15">
-        <v>1.9</v>
+        <v>0.37</v>
       </c>
       <c r="D214" s="16">
-        <v>46623</v>
+        <v>146802</v>
       </c>
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
@@ -4518,13 +4536,13 @@
         <v>220</v>
       </c>
       <c r="B215" s="14">
-        <v>10.711</v>
+        <v>10.677</v>
       </c>
       <c r="C215" s="15">
-        <v>-0.5</v>
+        <v>-0.43</v>
       </c>
       <c r="D215" s="16">
-        <v>43430</v>
+        <v>55851</v>
       </c>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
@@ -4534,13 +4552,13 @@
         <v>221</v>
       </c>
       <c r="B216" s="14">
-        <v>10.765</v>
+        <v>10.723</v>
       </c>
       <c r="C216" s="15">
-        <v>0.8</v>
+        <v>-0.94</v>
       </c>
       <c r="D216" s="16">
-        <v>40192</v>
+        <v>55484</v>
       </c>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
@@ -4550,13 +4568,13 @@
         <v>222</v>
       </c>
       <c r="B217" s="14">
-        <v>10.68</v>
+        <v>10.825</v>
       </c>
       <c r="C217" s="15">
-        <v>0.78</v>
+        <v>-1.17</v>
       </c>
       <c r="D217" s="16">
-        <v>40205</v>
+        <v>53984</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
@@ -4566,13 +4584,13 @@
         <v>223</v>
       </c>
       <c r="B218" s="14">
-        <v>10.597</v>
+        <v>10.953</v>
       </c>
       <c r="C218" s="15">
-        <v>-0.13</v>
+        <v>-0.73</v>
       </c>
       <c r="D218" s="16">
-        <v>39767</v>
+        <v>49996</v>
       </c>
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
@@ -4582,13 +4600,13 @@
         <v>224</v>
       </c>
       <c r="B219" s="14">
-        <v>10.611</v>
+        <v>11.033</v>
       </c>
       <c r="C219" s="15">
-        <v>0.75</v>
+        <v>1.09</v>
       </c>
       <c r="D219" s="16">
-        <v>40015</v>
+        <v>46812</v>
       </c>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
@@ -4598,13 +4616,13 @@
         <v>225</v>
       </c>
       <c r="B220" s="14">
-        <v>10.532</v>
+        <v>10.914</v>
       </c>
       <c r="C220" s="15">
-        <v>1.07</v>
+        <v>1.9</v>
       </c>
       <c r="D220" s="16">
-        <v>39952</v>
+        <v>46623</v>
       </c>
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
@@ -4614,13 +4632,13 @@
         <v>226</v>
       </c>
       <c r="B221" s="14">
-        <v>10.421</v>
+        <v>10.711</v>
       </c>
       <c r="C221" s="15">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="D221" s="16">
-        <v>40169</v>
+        <v>43430</v>
       </c>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
@@ -4630,13 +4648,13 @@
         <v>227</v>
       </c>
       <c r="B222" s="14">
-        <v>10.472</v>
+        <v>10.765</v>
       </c>
       <c r="C222" s="15">
-        <v>-0.32</v>
+        <v>0.8</v>
       </c>
       <c r="D222" s="16">
-        <v>38333</v>
+        <v>40192</v>
       </c>
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
@@ -4646,13 +4664,13 @@
         <v>228</v>
       </c>
       <c r="B223" s="14">
-        <v>10.506</v>
+        <v>10.68</v>
       </c>
       <c r="C223" s="15">
-        <v>-0.46</v>
+        <v>0.78</v>
       </c>
       <c r="D223" s="16">
-        <v>38694</v>
+        <v>40205</v>
       </c>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
@@ -4662,13 +4680,13 @@
         <v>229</v>
       </c>
       <c r="B224" s="14">
-        <v>10.554</v>
+        <v>10.597</v>
       </c>
       <c r="C224" s="15">
-        <v>0.23</v>
+        <v>-0.13</v>
       </c>
       <c r="D224" s="16">
-        <v>37907</v>
+        <v>39767</v>
       </c>
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
@@ -4678,13 +4696,13 @@
         <v>230</v>
       </c>
       <c r="B225" s="14">
-        <v>10.53</v>
+        <v>10.611</v>
       </c>
       <c r="C225" s="15">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="D225" s="16">
-        <v>36650</v>
+        <v>40015</v>
       </c>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
@@ -4694,13 +4712,13 @@
         <v>231</v>
       </c>
       <c r="B226" s="14">
-        <v>10.512</v>
+        <v>10.532</v>
       </c>
       <c r="C226" s="15">
-        <v>-0.19</v>
+        <v>1.07</v>
       </c>
       <c r="D226" s="16">
-        <v>34921</v>
+        <v>39952</v>
       </c>
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
@@ -4710,13 +4728,13 @@
         <v>232</v>
       </c>
       <c r="B227" s="14">
-        <v>10.532</v>
+        <v>10.421</v>
       </c>
       <c r="C227" s="15">
-        <v>-0.64</v>
+        <v>-0.49</v>
       </c>
       <c r="D227" s="16">
-        <v>33255</v>
+        <v>40169</v>
       </c>
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
@@ -4726,13 +4744,13 @@
         <v>233</v>
       </c>
       <c r="B228" s="14">
-        <v>10.6</v>
+        <v>10.472</v>
       </c>
       <c r="C228" s="15">
-        <v>0.57</v>
+        <v>-0.32</v>
       </c>
       <c r="D228" s="16">
-        <v>32711</v>
+        <v>38333</v>
       </c>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
@@ -4742,13 +4760,13 @@
         <v>234</v>
       </c>
       <c r="B229" s="14">
-        <v>10.54</v>
+        <v>10.506</v>
       </c>
       <c r="C229" s="15">
-        <v>-0.47</v>
+        <v>-0.46</v>
       </c>
       <c r="D229" s="16">
-        <v>33378</v>
+        <v>38694</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
@@ -4758,13 +4776,13 @@
         <v>235</v>
       </c>
       <c r="B230" s="14">
-        <v>10.59</v>
+        <v>10.554</v>
       </c>
       <c r="C230" s="15">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="D230" s="16">
-        <v>34091</v>
+        <v>37907</v>
       </c>
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
@@ -4774,13 +4792,13 @@
         <v>236</v>
       </c>
       <c r="B231" s="14">
-        <v>10.539</v>
+        <v>10.53</v>
       </c>
       <c r="C231" s="15">
-        <v>0.59</v>
+        <v>0.17</v>
       </c>
       <c r="D231" s="16">
-        <v>34184</v>
+        <v>36650</v>
       </c>
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
@@ -4790,13 +4808,13 @@
         <v>237</v>
       </c>
       <c r="B232" s="14">
-        <v>10.477</v>
+        <v>10.512</v>
       </c>
       <c r="C232" s="15">
-        <v>0.53</v>
+        <v>-0.19</v>
       </c>
       <c r="D232" s="16">
-        <v>34385</v>
+        <v>34921</v>
       </c>
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
@@ -4806,13 +4824,13 @@
         <v>238</v>
       </c>
       <c r="B233" s="14">
-        <v>10.422</v>
+        <v>10.532</v>
       </c>
       <c r="C233" s="15">
-        <v>-0.55</v>
+        <v>-0.64</v>
       </c>
       <c r="D233" s="16">
-        <v>33911</v>
+        <v>33255</v>
       </c>
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
@@ -4822,13 +4840,13 @@
         <v>239</v>
       </c>
       <c r="B234" s="14">
-        <v>10.48</v>
+        <v>10.6</v>
       </c>
       <c r="C234" s="15">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="D234" s="16">
-        <v>33624</v>
+        <v>32711</v>
       </c>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
@@ -4838,13 +4856,13 @@
         <v>240</v>
       </c>
       <c r="B235" s="14">
-        <v>10.402</v>
+        <v>10.54</v>
       </c>
       <c r="C235" s="15">
-        <v>-0.35</v>
+        <v>-0.47</v>
       </c>
       <c r="D235" s="16">
-        <v>22494</v>
+        <v>33378</v>
       </c>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
@@ -4854,13 +4872,13 @@
         <v>241</v>
       </c>
       <c r="B236" s="14">
-        <v>10.438</v>
+        <v>10.59</v>
       </c>
       <c r="C236" s="15">
-        <v>-0.95</v>
+        <v>0.48</v>
       </c>
       <c r="D236" s="16">
-        <v>16869</v>
+        <v>34091</v>
       </c>
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
@@ -4870,13 +4888,13 @@
         <v>242</v>
       </c>
       <c r="B237" s="14">
-        <v>10.538</v>
+        <v>10.539</v>
       </c>
       <c r="C237" s="15">
-        <v>0.08</v>
+        <v>0.59</v>
       </c>
       <c r="D237" s="16">
-        <v>16869</v>
+        <v>34184</v>
       </c>
       <c r="E237" s="12"/>
       <c r="F237" s="12"/>
@@ -4886,13 +4904,13 @@
         <v>243</v>
       </c>
       <c r="B238" s="14">
-        <v>10.53</v>
+        <v>10.477</v>
       </c>
       <c r="C238" s="15">
-        <v>-0.38</v>
+        <v>0.53</v>
       </c>
       <c r="D238" s="16">
-        <v>17496</v>
+        <v>34385</v>
       </c>
       <c r="E238" s="12"/>
       <c r="F238" s="12"/>
@@ -4902,13 +4920,13 @@
         <v>244</v>
       </c>
       <c r="B239" s="14">
-        <v>10.57</v>
+        <v>10.422</v>
       </c>
       <c r="C239" s="15">
-        <v>0.17</v>
+        <v>-0.55</v>
       </c>
       <c r="D239" s="16">
-        <v>17496</v>
+        <v>33911</v>
       </c>
       <c r="E239" s="12"/>
       <c r="F239" s="12"/>
@@ -4918,13 +4936,13 @@
         <v>245</v>
       </c>
       <c r="B240" s="14">
-        <v>10.552</v>
+        <v>10.48</v>
       </c>
       <c r="C240" s="15">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="D240" s="16">
-        <v>18388</v>
+        <v>33624</v>
       </c>
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
@@ -4934,13 +4952,13 @@
         <v>246</v>
       </c>
       <c r="B241" s="14">
-        <v>10.546</v>
+        <v>10.402</v>
       </c>
       <c r="C241" s="15">
-        <v>-0.78</v>
+        <v>-0.35</v>
       </c>
       <c r="D241" s="16">
-        <v>18296</v>
+        <v>22494</v>
       </c>
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
@@ -4950,13 +4968,13 @@
         <v>247</v>
       </c>
       <c r="B242" s="14">
-        <v>10.629</v>
+        <v>10.438</v>
       </c>
       <c r="C242" s="15">
-        <v>-0.13</v>
+        <v>-0.95</v>
       </c>
       <c r="D242" s="16">
-        <v>18525</v>
+        <v>16869</v>
       </c>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
@@ -4966,13 +4984,13 @@
         <v>248</v>
       </c>
       <c r="B243" s="14">
-        <v>10.643</v>
+        <v>10.538</v>
       </c>
       <c r="C243" s="15">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="D243" s="16">
-        <v>18764</v>
+        <v>16869</v>
       </c>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
@@ -4982,13 +5000,13 @@
         <v>249</v>
       </c>
       <c r="B244" s="14">
-        <v>10.603</v>
+        <v>10.53</v>
       </c>
       <c r="C244" s="15">
-        <v>-0.32</v>
+        <v>-0.38</v>
       </c>
       <c r="D244" s="16">
-        <v>18783</v>
+        <v>17496</v>
       </c>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
@@ -4998,13 +5016,13 @@
         <v>250</v>
       </c>
       <c r="B245" s="14">
-        <v>10.637</v>
+        <v>10.57</v>
       </c>
       <c r="C245" s="15">
-        <v>0.85</v>
+        <v>0.17</v>
       </c>
       <c r="D245" s="16">
-        <v>18552</v>
+        <v>17496</v>
       </c>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
@@ -5014,13 +5032,13 @@
         <v>251</v>
       </c>
       <c r="B246" s="14">
-        <v>10.547</v>
+        <v>10.552</v>
       </c>
       <c r="C246" s="15">
-        <v>0.46</v>
+        <v>0.06</v>
       </c>
       <c r="D246" s="16">
-        <v>17764</v>
+        <v>18388</v>
       </c>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
@@ -5030,13 +5048,13 @@
         <v>252</v>
       </c>
       <c r="B247" s="14">
-        <v>10.499</v>
+        <v>10.546</v>
       </c>
       <c r="C247" s="15">
-        <v>1.52</v>
+        <v>-0.78</v>
       </c>
       <c r="D247" s="16">
-        <v>14538</v>
+        <v>18296</v>
       </c>
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
@@ -5046,13 +5064,13 @@
         <v>253</v>
       </c>
       <c r="B248" s="14">
-        <v>10.342</v>
+        <v>10.629</v>
       </c>
       <c r="C248" s="15">
-        <v>0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="D248" s="16">
-        <v>9092</v>
+        <v>18525</v>
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -5062,13 +5080,13 @@
         <v>254</v>
       </c>
       <c r="B249" s="14">
-        <v>10.327</v>
+        <v>10.643</v>
       </c>
       <c r="C249" s="15">
-        <v>-0.31</v>
+        <v>0.38</v>
       </c>
       <c r="D249" s="16">
-        <v>8762</v>
+        <v>18764</v>
       </c>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -5078,13 +5096,13 @@
         <v>255</v>
       </c>
       <c r="B250" s="14">
-        <v>10.359</v>
+        <v>10.603</v>
       </c>
       <c r="C250" s="15">
-        <v>0.51</v>
+        <v>-0.32</v>
       </c>
       <c r="D250" s="16">
-        <v>8762</v>
+        <v>18783</v>
       </c>
       <c r="E250" s="12"/>
       <c r="F250" s="12"/>
@@ -5094,13 +5112,13 @@
         <v>256</v>
       </c>
       <c r="B251" s="14">
-        <v>10.306</v>
+        <v>10.637</v>
       </c>
       <c r="C251" s="15">
-        <v>0.19</v>
+        <v>0.85</v>
       </c>
       <c r="D251" s="16">
-        <v>9357</v>
+        <v>18552</v>
       </c>
       <c r="E251" s="12"/>
       <c r="F251" s="12"/>
@@ -5110,13 +5128,13 @@
         <v>257</v>
       </c>
       <c r="B252" s="14">
-        <v>10.287</v>
+        <v>10.547</v>
       </c>
       <c r="C252" s="15">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="D252" s="16">
-        <v>9357</v>
+        <v>17764</v>
       </c>
       <c r="E252" s="12"/>
       <c r="F252" s="12"/>
@@ -5126,13 +5144,13 @@
         <v>258</v>
       </c>
       <c r="B253" s="14">
-        <v>10.214</v>
+        <v>10.499</v>
       </c>
       <c r="C253" s="15">
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="D253" s="16">
-        <v>9558</v>
+        <v>14538</v>
       </c>
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
@@ -5142,13 +5160,13 @@
         <v>259</v>
       </c>
       <c r="B254" s="14">
-        <v>10.149</v>
+        <v>10.342</v>
       </c>
       <c r="C254" s="15">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="D254" s="16">
-        <v>9616</v>
+        <v>9092</v>
       </c>
       <c r="E254" s="12"/>
       <c r="F254" s="12"/>
@@ -5158,13 +5176,13 @@
         <v>260</v>
       </c>
       <c r="B255" s="14">
-        <v>10.095</v>
+        <v>10.327</v>
       </c>
       <c r="C255" s="15">
-        <v>0.8</v>
+        <v>-0.31</v>
       </c>
       <c r="D255" s="16">
-        <v>10127</v>
+        <v>8762</v>
       </c>
       <c r="E255" s="12"/>
       <c r="F255" s="12"/>
@@ -5174,13 +5192,13 @@
         <v>261</v>
       </c>
       <c r="B256" s="14">
-        <v>10.015</v>
+        <v>10.359</v>
       </c>
       <c r="C256" s="15">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="D256" s="16">
-        <v>7988</v>
+        <v>8762</v>
       </c>
       <c r="E256" s="12"/>
       <c r="F256" s="12"/>
@@ -5190,13 +5208,13 @@
         <v>262</v>
       </c>
       <c r="B257" s="14">
-        <v>9.97</v>
+        <v>10.306</v>
       </c>
       <c r="C257" s="15">
-        <v>-0.31</v>
+        <v>0.19</v>
       </c>
       <c r="D257" s="16">
-        <v>8865</v>
+        <v>9357</v>
       </c>
       <c r="E257" s="12"/>
       <c r="F257" s="12"/>
@@ -5206,13 +5224,13 @@
         <v>263</v>
       </c>
       <c r="B258" s="14">
-        <v>10.001</v>
+        <v>10.287</v>
       </c>
       <c r="C258" s="15">
-        <v>0.18</v>
+        <v>0.72</v>
       </c>
       <c r="D258" s="16">
-        <v>2189</v>
+        <v>9357</v>
       </c>
       <c r="E258" s="12"/>
       <c r="F258" s="12"/>
@@ -5222,13 +5240,13 @@
         <v>264</v>
       </c>
       <c r="B259" s="14">
-        <v>9.983</v>
+        <v>10.214</v>
       </c>
       <c r="C259" s="15">
-        <v>-1.39</v>
+        <v>0.64</v>
       </c>
       <c r="D259" s="16">
-        <v>500</v>
+        <v>9558</v>
       </c>
       <c r="E259" s="12"/>
       <c r="F259" s="12"/>
@@ -5238,13 +5256,13 @@
         <v>265</v>
       </c>
       <c r="B260" s="14">
-        <v>10.124</v>
+        <v>10.149</v>
       </c>
       <c r="C260" s="15">
-        <v>1.24</v>
+        <v>0.54</v>
       </c>
       <c r="D260" s="16">
-        <v>500</v>
+        <v>9616</v>
       </c>
       <c r="E260" s="12"/>
       <c r="F260" s="12"/>
@@ -5254,29 +5272,125 @@
         <v>266</v>
       </c>
       <c r="B261" s="14">
-        <v>10</v>
-      </c>
-      <c r="C261" s="17" t="s">
-        <v>267</v>
+        <v>10.095</v>
+      </c>
+      <c r="C261" s="15">
+        <v>0.8</v>
       </c>
       <c r="D261" s="16">
-        <v>0</v>
+        <v>10127</v>
       </c>
       <c r="E261" s="12"/>
       <c r="F261" s="12"/>
     </row>
-    <row r="262" ht="35" customHeight="1">
-      <c r="A262" s="18" t="s">
+    <row r="262" s="12" customFormat="1">
+      <c r="A262" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262" s="14">
+        <v>10.015</v>
+      </c>
+      <c r="C262" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="D262" s="16">
+        <v>7988</v>
+      </c>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+    </row>
+    <row r="263" s="12" customFormat="1">
+      <c r="A263" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B262" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C262" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D262" s="18" t="s">
-        <v>268</v>
+      <c r="B263" s="14">
+        <v>9.97</v>
+      </c>
+      <c r="C263" s="15">
+        <v>-0.31</v>
+      </c>
+      <c r="D263" s="16">
+        <v>8865</v>
+      </c>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+    </row>
+    <row r="264" s="12" customFormat="1">
+      <c r="A264" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264" s="14">
+        <v>10.001</v>
+      </c>
+      <c r="C264" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="D264" s="16">
+        <v>2189</v>
+      </c>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
+    </row>
+    <row r="265" s="12" customFormat="1">
+      <c r="A265" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" s="14">
+        <v>9.983</v>
+      </c>
+      <c r="C265" s="15">
+        <v>-1.39</v>
+      </c>
+      <c r="D265" s="16">
+        <v>500</v>
+      </c>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+    </row>
+    <row r="266" s="12" customFormat="1">
+      <c r="A266" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" s="14">
+        <v>10.124</v>
+      </c>
+      <c r="C266" s="15">
+        <v>1.24</v>
+      </c>
+      <c r="D266" s="16">
+        <v>500</v>
+      </c>
+      <c r="E266" s="12"/>
+      <c r="F266" s="12"/>
+    </row>
+    <row r="267" s="12" customFormat="1">
+      <c r="A267" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" s="14">
+        <v>10</v>
+      </c>
+      <c r="C267" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D267" s="16">
+        <v>0</v>
+      </c>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
+    </row>
+    <row r="268" ht="35" customHeight="1">
+      <c r="A268" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B268" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C268" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5292,18 +5406,18 @@
     <mergeCell ref="E4:E4"/>
     <mergeCell ref="E5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A268:D268"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" location="'Historique Cours'!A262" display="Se rendre en bas du document"/>
-    <hyperlink ref="B6" location="'Historique Cours'!A262" display="Se rendre en bas du document"/>
-    <hyperlink ref="C6" location="'Historique Cours'!A262" display="Se rendre en bas du document"/>
-    <hyperlink ref="D6" location="'Historique Cours'!A262" display="Se rendre en bas du document"/>
-    <hyperlink ref="E6" location="'Historique Cours'!A262" display="Se rendre en bas du document"/>
-    <hyperlink ref="A262" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="B262" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="C262" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="D262" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="A6" location="'Historique Cours'!A268" display="Se rendre en bas du document"/>
+    <hyperlink ref="B6" location="'Historique Cours'!A268" display="Se rendre en bas du document"/>
+    <hyperlink ref="C6" location="'Historique Cours'!A268" display="Se rendre en bas du document"/>
+    <hyperlink ref="D6" location="'Historique Cours'!A268" display="Se rendre en bas du document"/>
+    <hyperlink ref="E6" location="'Historique Cours'!A268" display="Se rendre en bas du document"/>
+    <hyperlink ref="A268" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="B268" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="C268" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="D268" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
